--- a/Notes/ele/SchoolNotes.xlsx
+++ b/Notes/ele/SchoolNotes.xlsx
@@ -16,12 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>R</t>
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Frequenze</t>
+  </si>
+  <si>
+    <t>Pulsazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|T| Passa Basso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|T| Passa Alto</t>
   </si>
   <si>
     <t>F1</t>
@@ -91,23 +103,135 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="0" tint="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor theme="5" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor theme="6" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor theme="7" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC01276"/>
+        <bgColor rgb="FFC01276"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE35A5A"/>
+        <bgColor rgb="FFE35A5A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF91D3"/>
+        <bgColor rgb="FFFF91D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF59F9F"/>
+        <bgColor rgb="FFF59F9F"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -115,19 +239,64 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="4" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="13" borderId="1" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="14" borderId="1" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="8" borderId="1" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="12" borderId="1" numFmtId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="15" borderId="0" numFmtId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="16" borderId="0" numFmtId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="164" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="164" xfId="10" applyNumberFormat="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent2" xfId="1" builtinId="36"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="4" builtinId="40"/>
+    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - Accent3" xfId="6" builtinId="38"/>
+    <cellStyle name="Accent1" xfId="7" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="8" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="9"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -157,7 +326,67 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Modulo di T</a:t>
+            </a:r>
+            <a:endParaRPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(rapporto tra Vout e Vin)</a:t>
+            </a:r>
+            <a:endParaRPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:x val="0.000000"/>
+          <c:y val="0.005490"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
@@ -174,10 +403,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" spc="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -199,6 +425,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Passa Basso</c:v>
+          </c:tx>
           <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -218,7 +447,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$23</c:f>
+              <c:f>Sheet1!$D$5:$D$25</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -226,12 +455,15 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Passa Alto</c:v>
+          </c:tx>
           <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="C01276"/>
             </a:solidFill>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -243,13 +475,45 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="C01276"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$23</c:f>
+              <c:f>Sheet1!$E$5:$E$25</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="1866169561"/>
@@ -286,10 +550,7 @@
             <a:pPr>
               <a:defRPr sz="900">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface="Arial"/>
@@ -349,10 +610,7 @@
             <a:pPr>
               <a:defRPr sz="900">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface="Arial"/>
@@ -378,7 +636,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:x val="0.000000"/>
+          <c:y val="0.010980"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
@@ -397,10 +660,7 @@
           <a:pPr>
             <a:defRPr sz="900">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -417,8 +677,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="3786187" y="492124"/>
-      <a:ext cx="5691187" cy="3405187"/>
+      <a:off x="4344986" y="393699"/>
+      <a:ext cx="5675311" cy="3468686"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -442,7 +702,7 @@
       <a:pPr>
         <a:defRPr sz="1000">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:latin typeface="+mn-lt"/>
           <a:ea typeface="+mn-ea"/>
@@ -1052,16 +1312,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579437</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26986</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>158749</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
+      <xdr:colOff>215898</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1071,8 +1331,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3786187" y="492124"/>
-        <a:ext cx="5691187" cy="3405187"/>
+        <a:off x="4344986" y="393699"/>
+        <a:ext cx="5675311" cy="3468686"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1584,7 +1844,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="5" max="5" width="11.40234375"/>
+    <col customWidth="1" min="2" max="3" width="15.7109375"/>
+    <col customWidth="1" min="4" max="5" style="1" width="15.7109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1600,538 +1861,552 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0000000000000001e-09</v>
-      </c>
+        <f>100*10^-9</f>
+        <v>1.0000000000000001e-07</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <f>2*PI()*$B3</f>
-        <v>1256.6370614359173</v>
-      </c>
-      <c r="D3">
-        <f>1/SQRT(1^2+(($C3*$B$2*$B$1)^2))</f>
-        <v>0.99999921043258311</v>
-      </c>
-      <c r="E3" s="1">
-        <f>$C3*($B$2*$B$1)/SQRT(1+$C3^2*($B$2*$B$1)^2)</f>
-        <v>0.0012566360692362389</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <f>B3*2</f>
-        <v>400</v>
-      </c>
-      <c r="C4">
-        <f>2*PI()*$B4</f>
-        <v>2513.2741228718346</v>
-      </c>
-      <c r="D4">
-        <f>1/SQRT(1^2+(($C4*$B$2*$B$1)^2))</f>
-        <v>0.99999684174155357</v>
-      </c>
-      <c r="E4" s="1">
-        <f>$C4*($B$2*$B$1)/SQRT(1+$C4^2*($B$2*$B$1)^2)</f>
-        <v>0.0025132661853026084</v>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>B4*2</f>
-        <v>800</v>
-      </c>
-      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>200</v>
+      </c>
+      <c r="C5" s="7">
         <f>2*PI()*$B5</f>
-        <v>5026.5482457436692</v>
-      </c>
-      <c r="D5">
+        <v>1256.6370614359173</v>
+      </c>
+      <c r="D5" s="8">
         <f>1/SQRT(1^2+(($C5*$B$2*$B$1)^2))</f>
-        <v>0.9999873671457542</v>
-      </c>
-      <c r="E5" s="1">
+        <v>0.99219661539359161</v>
+      </c>
+      <c r="E5" s="9">
         <f>$C5*($B$2*$B$1)/SQRT(1+$C5^2*($B$2*$B$1)^2)</f>
-        <v>0.0050264847460923219</v>
+        <v>0.12468310391348661</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>B5*2</f>
-        <v>1600</v>
-      </c>
-      <c r="C6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B5*1.25</f>
+        <v>250</v>
+      </c>
+      <c r="C6" s="7">
         <f>2*PI()*$B6</f>
-        <v>10053.096491487338</v>
-      </c>
-      <c r="D6">
+        <v>1570.7963267948965</v>
+      </c>
+      <c r="D6" s="8">
         <f>1/SQRT(1^2+(($C6*$B$2*$B$1)^2))</f>
-        <v>0.99994947145542523</v>
-      </c>
-      <c r="E6" s="1">
+        <v>0.98788670192018124</v>
+      </c>
+      <c r="E6" s="9">
         <f>$C6*($B$2*$B$1)/SQRT(1+$C6^2*($B$2*$B$1)^2)</f>
-        <v>0.010052588523153156</v>
+        <v>0.15517688026657456</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f>B6*2</f>
-        <v>3200</v>
-      </c>
-      <c r="C7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <f>B6*1.25</f>
+        <v>312.5</v>
+      </c>
+      <c r="C7" s="7">
         <f>2*PI()*$B7</f>
-        <v>20106.192982974677</v>
-      </c>
-      <c r="D7">
+        <v>1963.4954084936207</v>
+      </c>
+      <c r="D7" s="8">
         <f>1/SQRT(1^2+(($C7*$B$2*$B$1)^2))</f>
-        <v>0.9997979317657284</v>
-      </c>
-      <c r="E7" s="1">
+        <v>0.98126348476333147</v>
+      </c>
+      <c r="E7" s="9">
         <f>$C7*($B$2*$B$1)/SQRT(1+$C7^2*($B$2*$B$1)^2)</f>
-        <v>0.020102130160060686</v>
+        <v>0.19267063468552514</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f>B7*2</f>
-        <v>6400</v>
-      </c>
-      <c r="C8">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <f>B7*1.25</f>
+        <v>390.625</v>
+      </c>
+      <c r="C8" s="7">
         <f>2*PI()*$B8</f>
-        <v>40212.385965949354</v>
-      </c>
-      <c r="D8">
+        <v>2454.3692606170257</v>
+      </c>
+      <c r="D8" s="8">
         <f>1/SQRT(1^2+(($C8*$B$2*$B$1)^2))</f>
-        <v>0.99919246124002259</v>
-      </c>
-      <c r="E8" s="1">
+        <v>0.97117625175345834</v>
+      </c>
+      <c r="E8" s="9">
         <f>$C8*($B$2*$B$1)/SQRT(1+$C8^2*($B$2*$B$1)^2)</f>
-        <v>0.040179912905650685</v>
+        <v>0.23836251389449503</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f>B8*2</f>
-        <v>12800</v>
-      </c>
-      <c r="C9">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <f>B8*1.25</f>
+        <v>488.28125</v>
+      </c>
+      <c r="C9" s="7">
         <f>2*PI()*$B9</f>
-        <v>80424.771931898707</v>
-      </c>
-      <c r="D9">
+        <v>3067.9615757712822</v>
+      </c>
+      <c r="D9" s="8">
         <f>1/SQRT(1^2+(($C9*$B$2*$B$1)^2))</f>
-        <v>0.99678153277326031</v>
-      </c>
-      <c r="E9" s="1">
+        <v>0.95601950084687104</v>
+      </c>
+      <c r="E9" s="9">
         <f>$C9*($B$2*$B$1)/SQRT(1+$C9^2*($B$2*$B$1)^2)</f>
-        <v>0.080165927439217882</v>
+        <v>0.29330310942862414</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f>B9*2</f>
-        <v>25600</v>
-      </c>
-      <c r="C10">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <f>B9*1.25</f>
+        <v>610.3515625</v>
+      </c>
+      <c r="C10" s="7">
         <f>2*PI()*$B10</f>
-        <v>160849.54386379741</v>
-      </c>
-      <c r="D10">
+        <v>3834.9519697141031</v>
+      </c>
+      <c r="D10" s="8">
         <f>1/SQRT(1^2+(($C10*$B$2*$B$1)^2))</f>
-        <v>0.98730944103142781</v>
-      </c>
-      <c r="E10" s="1">
+        <v>0.93369559667366619</v>
+      </c>
+      <c r="E10" s="9">
         <f>$C10*($B$2*$B$1)/SQRT(1+$C10^2*($B$2*$B$1)^2)</f>
-        <v>0.15880827324232599</v>
+        <v>0.35806777675770612</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f>B10*2</f>
-        <v>51200</v>
-      </c>
-      <c r="C11">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B10*1.25</f>
+        <v>762.939453125</v>
+      </c>
+      <c r="C11" s="7">
         <f>2*PI()*$B11</f>
-        <v>321699.08772759483</v>
-      </c>
-      <c r="D11">
+        <v>4793.6899621426282</v>
+      </c>
+      <c r="D11" s="8">
         <f>1/SQRT(1^2+(($C11*$B$2*$B$1)^2))</f>
-        <v>0.95195350981500448</v>
-      </c>
-      <c r="E11" s="1">
+        <v>0.90174491718692429</v>
+      </c>
+      <c r="E11" s="9">
         <f>$C11*($B$2*$B$1)/SQRT(1+$C11^2*($B$2*$B$1)^2)</f>
-        <v>0.30624257566656898</v>
+        <v>0.43226855579320944</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f>B11*2</f>
-        <v>102400</v>
-      </c>
-      <c r="C12">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <f>B11*1.25</f>
+        <v>953.67431640625</v>
+      </c>
+      <c r="C12" s="7">
         <f>2*PI()*$B12</f>
-        <v>643398.17545518966</v>
-      </c>
-      <c r="D12">
+        <v>5992.112452678286</v>
+      </c>
+      <c r="D12" s="8">
         <f>1/SQRT(1^2+(($C12*$B$2*$B$1)^2))</f>
-        <v>0.84097144945716151</v>
-      </c>
-      <c r="E12" s="1">
+        <v>0.85779127563128843</v>
+      </c>
+      <c r="E12" s="9">
         <f>$C12*($B$2*$B$1)/SQRT(1+$C12^2*($B$2*$B$1)^2)</f>
-        <v>0.54107949619064388</v>
+        <v>0.51399817845090356</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f>B12*2</f>
-        <v>204800</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6">
+        <f>B12*1.25</f>
+        <v>1192.0928955078125</v>
+      </c>
+      <c r="C13" s="7">
         <f>2*PI()*$B13</f>
-        <v>1286796.3509103793</v>
-      </c>
-      <c r="D13">
+        <v>7490.140565847857</v>
+      </c>
+      <c r="D13" s="8">
         <f>1/SQRT(1^2+(($C13*$B$2*$B$1)^2))</f>
-        <v>0.61361878974538231</v>
-      </c>
-      <c r="E13" s="1">
+        <v>0.80037862203827992</v>
+      </c>
+      <c r="E13" s="9">
         <f>$C13*($B$2*$B$1)/SQRT(1+$C13^2*($B$2*$B$1)^2)</f>
-        <v>0.78960241949440124</v>
+        <v>0.59949483849663299</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f>B13*2</f>
-        <v>409600</v>
-      </c>
-      <c r="C14">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6">
+        <f>B13*1.25</f>
+        <v>1490.1161193847656</v>
+      </c>
+      <c r="C14" s="7">
         <f>2*PI()*$B14</f>
-        <v>2573592.7018207586</v>
-      </c>
-      <c r="D14">
+        <v>9362.6757073098215</v>
+      </c>
+      <c r="D14" s="8">
         <f>1/SQRT(1^2+(($C14*$B$2*$B$1)^2))</f>
-        <v>0.36218147494705166</v>
-      </c>
-      <c r="E14" s="1">
+        <v>0.72998593983353999</v>
+      </c>
+      <c r="E14" s="9">
         <f>$C14*($B$2*$B$1)/SQRT(1+$C14^2*($B$2*$B$1)^2)</f>
-        <v>0.93210760065841014</v>
+        <v>0.68346216255572145</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f>B14*2</f>
-        <v>819200</v>
-      </c>
-      <c r="C15">
+      <c r="A15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6">
+        <f>B14*1.25</f>
+        <v>1862.645149230957</v>
+      </c>
+      <c r="C15" s="7">
         <f>2*PI()*$B15</f>
-        <v>5147185.4036415173</v>
-      </c>
-      <c r="D15">
+        <v>11703.344634137276</v>
+      </c>
+      <c r="D15" s="8">
         <f>1/SQRT(1^2+(($C15*$B$2*$B$1)^2))</f>
-        <v>0.19071499726148711</v>
-      </c>
-      <c r="E15" s="1">
+        <v>0.64961328192325529</v>
+      </c>
+      <c r="E15" s="9">
         <f>$C15*($B$2*$B$1)/SQRT(1+$C15^2*($B$2*$B$1)^2)</f>
-        <v>0.98164545015985827</v>
+        <v>0.76026481172608351</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f>B15*2</f>
-        <v>1638400</v>
-      </c>
-      <c r="C16">
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B15*1.25</f>
+        <v>2328.3064365386963</v>
+      </c>
+      <c r="C16" s="7">
         <f>2*PI()*$B16</f>
-        <v>10294370.807283035</v>
-      </c>
-      <c r="D16">
+        <v>14629.180792671596</v>
+      </c>
+      <c r="D16" s="8">
         <f>1/SQRT(1^2+(($C16*$B$2*$B$1)^2))</f>
-        <v>0.096685364664740855</v>
-      </c>
-      <c r="E16" s="1">
+        <v>0.56432102860274114</v>
+      </c>
+      <c r="E16" s="9">
         <f>$C16*($B$2*$B$1)/SQRT(1+$C16^2*($B$2*$B$1)^2)</f>
-        <v>0.99531499549622282</v>
+        <v>0.82555543525358988</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f>B16*2</f>
-        <v>3276800</v>
-      </c>
-      <c r="C17">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B16*1.25</f>
+        <v>2910.3830456733704</v>
+      </c>
+      <c r="C17" s="7">
         <f>2*PI()*$B17</f>
-        <v>20588741.614566069</v>
-      </c>
-      <c r="D17">
+        <v>18286.475990839495</v>
+      </c>
+      <c r="D17" s="8">
         <f>1/SQRT(1^2+(($C17*$B$2*$B$1)^2))</f>
-        <v>0.048513045028890034</v>
-      </c>
-      <c r="E17" s="1">
+        <v>0.47979695681135154</v>
+      </c>
+      <c r="E17" s="9">
         <f>$C17*($B$2*$B$1)/SQRT(1+$C17^2*($B$2*$B$1)^2)</f>
-        <v>0.99882254903562562</v>
+        <v>0.87737955312086346</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f>B17*2</f>
-        <v>6553600</v>
-      </c>
-      <c r="C18">
+      <c r="A18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6">
+        <f>B17*1.25</f>
+        <v>3637.978807091713</v>
+      </c>
+      <c r="C18" s="7">
         <f>2*PI()*$B18</f>
-        <v>41177483.229132138</v>
-      </c>
-      <c r="D18">
+        <v>22858.094988549368</v>
+      </c>
+      <c r="D18" s="8">
         <f>1/SQRT(1^2+(($C18*$B$2*$B$1)^2))</f>
-        <v>0.024277958935770928</v>
-      </c>
-      <c r="E18" s="1">
+        <v>0.40080482042789051</v>
+      </c>
+      <c r="E18" s="9">
         <f>$C18*($B$2*$B$1)/SQRT(1+$C18^2*($B$2*$B$1)^2)</f>
-        <v>0.99970524691526585</v>
+        <v>0.91616346572091956</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f>B18*2</f>
-        <v>13107200</v>
-      </c>
-      <c r="C19">
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B18*1.25</f>
+        <v>4547.4735088646412</v>
+      </c>
+      <c r="C19" s="7">
         <f>2*PI()*$B19</f>
-        <v>82354966.458264276</v>
-      </c>
-      <c r="D19">
+        <v>28572.618735686712</v>
+      </c>
+      <c r="D19" s="8">
         <f>1/SQRT(1^2+(($C19*$B$2*$B$1)^2))</f>
-        <v>0.012141663463540214</v>
-      </c>
-      <c r="E19" s="1">
+        <v>0.33033816591740484</v>
+      </c>
+      <c r="E19" s="9">
         <f>$C19*($B$2*$B$1)/SQRT(1+$C19^2*($B$2*$B$1)^2)</f>
-        <v>0.99992628728738697</v>
+        <v>0.94386264686040278</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f>B19*2</f>
-        <v>26214400</v>
-      </c>
-      <c r="C20">
+      <c r="A20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6">
+        <f>B19*1.25</f>
+        <v>5684.3418860808015</v>
+      </c>
+      <c r="C20" s="7">
         <f>2*PI()*$B20</f>
-        <v>164709932.91652855</v>
-      </c>
-      <c r="D20">
+        <v>35715.773419608391</v>
+      </c>
+      <c r="D20" s="8">
         <f>1/SQRT(1^2+(($C20*$B$2*$B$1)^2))</f>
-        <v>0.0060711673703389996</v>
-      </c>
-      <c r="E20" s="1">
+        <v>0.26961951081329161</v>
+      </c>
+      <c r="E20" s="9">
         <f>$C20*($B$2*$B$1)/SQRT(1+$C20^2*($B$2*$B$1)^2)</f>
-        <v>0.9999815702935535</v>
+        <v>0.96296693577131787</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f>B20*2</f>
-        <v>52428800</v>
-      </c>
-      <c r="C21">
+      <c r="A21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6">
+        <f>B20*1.25</f>
+        <v>7105.4273576010019</v>
+      </c>
+      <c r="C21" s="7">
         <f>2*PI()*$B21</f>
-        <v>329419865.83305711</v>
-      </c>
-      <c r="D21">
+        <v>44644.716774510489</v>
+      </c>
+      <c r="D21" s="8">
         <f>1/SQRT(1^2+(($C21*$B$2*$B$1)^2))</f>
-        <v>0.0030356256443399665</v>
-      </c>
-      <c r="E21" s="1">
+        <v>0.21857462786692614</v>
+      </c>
+      <c r="E21" s="9">
         <f>$C21*($B$2*$B$1)/SQRT(1+$C21^2*($B$2*$B$1)^2)</f>
-        <v>0.99999539247785896</v>
+        <v>0.9758202355212946</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f>B21*2</f>
-        <v>104857600</v>
-      </c>
-      <c r="C22">
+      <c r="A22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6">
+        <f>B21*1.25</f>
+        <v>8881.7841970012523</v>
+      </c>
+      <c r="C22" s="7">
         <f>2*PI()*$B22</f>
-        <v>658839731.66611421</v>
-      </c>
-      <c r="D22">
+        <v>55805.895968138109</v>
+      </c>
+      <c r="D22" s="8">
         <f>1/SQRT(1^2+(($C22*$B$2*$B$1)^2))</f>
-        <v>0.0015178180672022253</v>
-      </c>
-      <c r="E22" s="1">
+        <v>0.17638308296966382</v>
+      </c>
+      <c r="E22" s="9">
         <f>$C22*($B$2*$B$1)/SQRT(1+$C22^2*($B$2*$B$1)^2)</f>
-        <v>0.99999884811349393</v>
+        <v>0.98432159787445317</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f>B22*2</f>
-        <v>209715200</v>
-      </c>
-      <c r="C23">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6">
+        <f>B22*1.25</f>
+        <v>11102.230246251565</v>
+      </c>
+      <c r="C23" s="7">
         <f>2*PI()*$B23</f>
-        <v>1317679463.3322284</v>
-      </c>
-      <c r="D23">
+        <v>69757.36996017264</v>
+      </c>
+      <c r="D23" s="8">
         <f>1/SQRT(1^2+(($C23*$B$2*$B$1)^2))</f>
-        <v>0.0007589096892343908</v>
-      </c>
-      <c r="E23" s="1">
+        <v>0.14190335972234641</v>
+      </c>
+      <c r="E23" s="9">
         <f>$C23*($B$2*$B$1)/SQRT(1+$C23^2*($B$2*$B$1)^2)</f>
-        <v>0.99999971202800031</v>
+        <v>0.98988051627431817</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6">
+        <f>B23*1.25</f>
+        <v>13877.787807814457</v>
+      </c>
+      <c r="C24" s="7">
+        <f>2*PI()*$B24</f>
+        <v>87196.712450215797</v>
+      </c>
+      <c r="D24" s="8">
+        <f>1/SQRT(1^2+(($C24*$B$2*$B$1)^2))</f>
+        <v>0.11393641072644366</v>
+      </c>
+      <c r="E24" s="9">
+        <f>$C24*($B$2*$B$1)/SQRT(1+$C24^2*($B$2*$B$1)^2)</f>
+        <v>0.99348804437233917</v>
+      </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6">
+        <f>B24*1.25</f>
+        <v>17347.234759768071</v>
+      </c>
+      <c r="C25" s="7">
+        <f>2*PI()*$B25</f>
+        <v>108995.89056276974</v>
+      </c>
+      <c r="D25" s="8">
+        <f>1/SQRT(1^2+(($C25*$B$2*$B$1)^2))</f>
+        <v>0.091362863543653069</v>
+      </c>
+      <c r="E25" s="9">
+        <f>$C25*($B$2*$B$1)/SQRT(1+$C25^2*($B$2*$B$1)^2)</f>
+        <v>0.99581766763052759</v>
+      </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="10"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="10"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="10"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="10"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="10"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -2139,5 +2414,97 @@
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="7" id="{00DA00AF-003B-445A-B3FF-00C900AB00AD}">
+            <x14:dataBar maxLength="100" minLength="0" border="1" axisPosition="automatic" direction="context" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:fillColor rgb="FF008AEF"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor indexed="2"/>
+              <x14:negativeBorderColor indexed="2"/>
+              <x14:axisColor indexed="64"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="6" id="{0026006D-0019-4516-916F-00FB00C00041}">
+            <x14:dataBar maxLength="100" minLength="0" axisPosition="automatic" direction="context" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:fillColor rgb="FF008AEF"/>
+              <x14:negativeFillColor indexed="2"/>
+              <x14:axisColor indexed="64"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="5" id="{009500D2-0098-4F3E-A4B6-00B2009100C4}">
+            <x14:dataBar maxLength="100" minLength="0" axisPosition="automatic" direction="context" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:fillColor rgb="FFFF555A"/>
+              <x14:negativeFillColor indexed="2"/>
+              <x14:axisColor indexed="64"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E5:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="4" id="{00FF006F-0020-4E51-A841-00DF00E800E6}">
+            <x14:dataBar maxLength="100" minLength="0" axisPosition="automatic" direction="context" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:fillColor rgb="FFFFB628"/>
+              <x14:negativeFillColor indexed="2"/>
+              <x14:axisColor indexed="64"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="3" id="{00B400FF-004D-4073-B05F-009E003800CB}">
+            <x14:dataBar maxLength="100" minLength="0" axisPosition="automatic" direction="context" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:fillColor rgb="FFD6007B"/>
+              <x14:negativeFillColor indexed="2"/>
+              <x14:axisColor indexed="64"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B5:B25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="2" id="{00D8004A-00A2-4D14-8E3D-003500FB000D}">
+            <x14:dataBar maxLength="100" minLength="0" axisPosition="automatic" direction="context" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:fillColor rgb="FFFF555A"/>
+              <x14:negativeFillColor indexed="2"/>
+              <x14:axisColor indexed="64"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="1" id="{007A0007-007A-4E94-AE3A-00A800FC0034}">
+            <x14:dataBar maxLength="100" minLength="0" axisPosition="automatic" direction="context" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:fillColor rgb="FFFFB628"/>
+              <x14:negativeFillColor indexed="2"/>
+              <x14:axisColor indexed="64"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E5:E25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>